--- a/python/Viral_Full_loadings_and_variance.xlsx
+++ b/python/Viral_Full_loadings_and_variance.xlsx
@@ -477,34 +477,34 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>0.2877431341573358</v>
+        <v>0.2876110525961311</v>
       </c>
       <c r="C2">
-        <v>0.2251143249652671</v>
+        <v>0.2247398354089465</v>
       </c>
       <c r="D2">
-        <v>0.1797874602109708</v>
+        <v>0.1799351166337748</v>
       </c>
       <c r="E2">
-        <v>0.1025094332530867</v>
+        <v>0.1025979210900152</v>
       </c>
       <c r="F2">
-        <v>0.07321240306808145</v>
+        <v>0.07331901032860452</v>
       </c>
       <c r="G2">
-        <v>0.06454060881033767</v>
+        <v>0.06459369382166309</v>
       </c>
       <c r="H2">
-        <v>0.04582941125759385</v>
+        <v>0.04589268278546174</v>
       </c>
       <c r="I2">
-        <v>0.01813728211355197</v>
+        <v>0.01818560196298689</v>
       </c>
       <c r="J2">
-        <v>0.002702771729712594</v>
+        <v>0.00270412540753068</v>
       </c>
       <c r="K2">
-        <v>0.0004231704340623527</v>
+        <v>0.0004209599648853857</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -512,34 +512,34 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>0.372391481356703</v>
+        <v>0.3737136759700876</v>
       </c>
       <c r="C3">
-        <v>0.3727797150202706</v>
+        <v>0.3718215769513886</v>
       </c>
       <c r="D3">
-        <v>-0.37281663822223</v>
+        <v>-0.3722532538750891</v>
       </c>
       <c r="E3">
-        <v>-0.06412098167345859</v>
+        <v>-0.06436217541318802</v>
       </c>
       <c r="F3">
-        <v>-0.1953448977335851</v>
+        <v>-0.1947847181353105</v>
       </c>
       <c r="G3">
-        <v>0.4842915026044422</v>
+        <v>0.4848226218584492</v>
       </c>
       <c r="H3">
-        <v>-0.3235451579109256</v>
+        <v>-0.3244352112258548</v>
       </c>
       <c r="I3">
-        <v>-0.2083578453612467</v>
+        <v>-0.208117513527888</v>
       </c>
       <c r="J3">
-        <v>-0.2432009171454216</v>
+        <v>-0.2444040540287785</v>
       </c>
       <c r="K3">
-        <v>0.3151461360373921</v>
+        <v>0.3131666013979553</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -547,34 +547,34 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>-0.3275606532401453</v>
+        <v>-0.3260501752798823</v>
       </c>
       <c r="C4">
-        <v>0.4170960588264964</v>
+        <v>0.4187100848050248</v>
       </c>
       <c r="D4">
-        <v>-0.3154286936994091</v>
+        <v>-0.3169285380736042</v>
       </c>
       <c r="E4">
-        <v>0.08128874752930948</v>
+        <v>0.08123166138051852</v>
       </c>
       <c r="F4">
-        <v>-0.1578388874025207</v>
+        <v>-0.1588952788700509</v>
       </c>
       <c r="G4">
-        <v>-0.2813738048284509</v>
+        <v>-0.2805725713938124</v>
       </c>
       <c r="H4">
-        <v>0.2307618468964579</v>
+        <v>0.2290462096628104</v>
       </c>
       <c r="I4">
-        <v>-0.4533969710286441</v>
+        <v>-0.4543558964783359</v>
       </c>
       <c r="J4">
-        <v>0.4695189373819423</v>
+        <v>0.4689995883463313</v>
       </c>
       <c r="K4">
-        <v>0.1711127306050239</v>
+        <v>0.1688198118294386</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -582,34 +582,34 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>0.08642306903718698</v>
+        <v>-0.08602315527147389</v>
       </c>
       <c r="C5">
-        <v>-0.2055088436192296</v>
+        <v>0.2058061726182231</v>
       </c>
       <c r="D5">
-        <v>-0.377237220363444</v>
+        <v>0.3769385608537535</v>
       </c>
       <c r="E5">
-        <v>-0.6973595327713781</v>
+        <v>0.6969302453971241</v>
       </c>
       <c r="F5">
-        <v>0.417603830752413</v>
+        <v>-0.417523656882171</v>
       </c>
       <c r="G5">
-        <v>0.08854759254841608</v>
+        <v>-0.08873728240553749</v>
       </c>
       <c r="H5">
-        <v>0.3601121078287638</v>
+        <v>-0.3612841026003192</v>
       </c>
       <c r="I5">
-        <v>-0.09230891379385195</v>
+        <v>0.09153803072199526</v>
       </c>
       <c r="J5">
-        <v>0.03372715709856017</v>
+        <v>-0.0342958095621292</v>
       </c>
       <c r="K5">
-        <v>0.01030084734339021</v>
+        <v>-0.01294081538778751</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -617,34 +617,34 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>0.3987974704979252</v>
+        <v>0.3987715443737347</v>
       </c>
       <c r="C6">
-        <v>0.04091547912424413</v>
+        <v>0.03862974075293558</v>
       </c>
       <c r="D6">
-        <v>-0.06066890752478317</v>
+        <v>-0.0602329029524407</v>
       </c>
       <c r="E6">
-        <v>-0.09660089774525271</v>
+        <v>-0.09898633232436728</v>
       </c>
       <c r="F6">
-        <v>0.06739658414626692</v>
+        <v>0.06680094362155378</v>
       </c>
       <c r="G6">
-        <v>-0.2513242467459972</v>
+        <v>-0.250405439600298</v>
       </c>
       <c r="H6">
-        <v>-0.4236865194600311</v>
+        <v>-0.4208938944002022</v>
       </c>
       <c r="I6">
-        <v>-0.3184046156770983</v>
+        <v>-0.3178182694905105</v>
       </c>
       <c r="J6">
-        <v>0.2283808159036202</v>
+        <v>0.2256589520803039</v>
       </c>
       <c r="K6">
-        <v>-0.6523176462587712</v>
+        <v>-0.6556030554173755</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -652,34 +652,34 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>0.06448782135587315</v>
+        <v>0.07110371222893164</v>
       </c>
       <c r="C7">
-        <v>-0.03463487553653641</v>
+        <v>-0.03895651322125942</v>
       </c>
       <c r="D7">
-        <v>0.2320766001195297</v>
+        <v>0.2336377917418549</v>
       </c>
       <c r="E7">
-        <v>0.2888563855129962</v>
+        <v>0.2870674633245763</v>
       </c>
       <c r="F7">
-        <v>0.7479515757793573</v>
+        <v>0.7428533852601172</v>
       </c>
       <c r="G7">
-        <v>0.05830552774414844</v>
+        <v>0.05601319009216989</v>
       </c>
       <c r="H7">
-        <v>-0.2160768092972557</v>
+        <v>-0.2184820926729631</v>
       </c>
       <c r="I7">
-        <v>-0.3006215803249444</v>
+        <v>-0.3008760868539855</v>
       </c>
       <c r="J7">
-        <v>0.1500707879626386</v>
+        <v>0.1591128436844245</v>
       </c>
       <c r="K7">
-        <v>0.3673272774644498</v>
+        <v>0.3713299543719922</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -687,34 +687,34 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>-0.4938725153693377</v>
+        <v>-0.4927125969169615</v>
       </c>
       <c r="C8">
-        <v>0.4277728386065447</v>
+        <v>0.4274250156275133</v>
       </c>
       <c r="D8">
-        <v>-0.3078383624388972</v>
+        <v>-0.3042384591441828</v>
       </c>
       <c r="E8">
-        <v>0.0475173701280364</v>
+        <v>0.05166868627377766</v>
       </c>
       <c r="F8">
-        <v>0.4002046571628805</v>
+        <v>0.4092908037340649</v>
       </c>
       <c r="G8">
-        <v>0.05748455770195701</v>
+        <v>0.06096423255481079</v>
       </c>
       <c r="H8">
-        <v>-0.2329839160727079</v>
+        <v>-0.231659986800905</v>
       </c>
       <c r="I8">
-        <v>0.3217933447063573</v>
+        <v>0.3159769420263329</v>
       </c>
       <c r="J8">
-        <v>-0.2286945012771936</v>
+        <v>-0.2293388210173268</v>
       </c>
       <c r="K8">
-        <v>-0.3201188849645761</v>
+        <v>-0.3193302175126561</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -722,34 +722,34 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>0.1048451123412642</v>
+        <v>0.1029944134517644</v>
       </c>
       <c r="C9">
-        <v>-0.05305097511000792</v>
+        <v>-0.04989429894904145</v>
       </c>
       <c r="D9">
-        <v>-0.1693907103484266</v>
+        <v>-0.1732832705673204</v>
       </c>
       <c r="E9">
-        <v>-0.08780057451396657</v>
+        <v>-0.08977900822043863</v>
       </c>
       <c r="F9">
-        <v>-0.0263869198459113</v>
+        <v>-0.03106639877754777</v>
       </c>
       <c r="G9">
-        <v>0.05480265857848719</v>
+        <v>0.05323400862970607</v>
       </c>
       <c r="H9">
-        <v>-0.306015461869768</v>
+        <v>-0.3073003525016518</v>
       </c>
       <c r="I9">
-        <v>0.5842817533937638</v>
+        <v>0.5873578316631102</v>
       </c>
       <c r="J9">
-        <v>0.6809459182934482</v>
+        <v>0.6787547265853699</v>
       </c>
       <c r="K9">
-        <v>0.2176542395675019</v>
+        <v>0.2118623581978529</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -757,34 +757,34 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>0.2360913866454425</v>
+        <v>0.2364709550594995</v>
       </c>
       <c r="C10">
-        <v>0.1914169420759924</v>
+        <v>0.1876698191979149</v>
       </c>
       <c r="D10">
-        <v>0.04219194829001578</v>
+        <v>0.0443128821914974</v>
       </c>
       <c r="E10">
-        <v>0.343573646820699</v>
+        <v>0.3435461961311787</v>
       </c>
       <c r="F10">
-        <v>0.1031370254041308</v>
+        <v>0.1022522083049256</v>
       </c>
       <c r="G10">
-        <v>0.5441855036445911</v>
+        <v>0.5460882635984654</v>
       </c>
       <c r="H10">
-        <v>0.5120955968356986</v>
+        <v>0.5120358233586672</v>
       </c>
       <c r="I10">
-        <v>0.07377425832722304</v>
+        <v>0.07210840688391849</v>
       </c>
       <c r="J10">
-        <v>0.2782335840553971</v>
+        <v>0.2803068905743343</v>
       </c>
       <c r="K10">
-        <v>-0.368678481844605</v>
+        <v>-0.3664065236571978</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -792,34 +792,34 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>0.5217923781272326</v>
+        <v>0.5222806659874731</v>
       </c>
       <c r="C11">
-        <v>0.3085558713498837</v>
+        <v>0.3090795017055522</v>
       </c>
       <c r="D11">
-        <v>-0.1543848185441664</v>
+        <v>-0.1552180195397575</v>
       </c>
       <c r="E11">
-        <v>0.1779929688971186</v>
+        <v>0.180059262421254</v>
       </c>
       <c r="F11">
-        <v>0.1643116520611816</v>
+        <v>0.1648847922020294</v>
       </c>
       <c r="G11">
-        <v>-0.5558072920986341</v>
+        <v>-0.5542989244961463</v>
       </c>
       <c r="H11">
-        <v>0.2752926307546194</v>
+        <v>0.2762901261566343</v>
       </c>
       <c r="I11">
-        <v>0.3112570792937061</v>
+        <v>0.3110723598890855</v>
       </c>
       <c r="J11">
-        <v>-0.2126857421840958</v>
+        <v>-0.2123086245061705</v>
       </c>
       <c r="K11">
-        <v>0.1522745132002601</v>
+        <v>0.1502241813164304</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -827,34 +827,34 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>-0.02127361939921679</v>
+        <v>-0.02203966517610361</v>
       </c>
       <c r="C12">
-        <v>-0.5694799795180384</v>
+        <v>-0.5702042159183544</v>
       </c>
       <c r="D12">
-        <v>-0.6423330954622388</v>
+        <v>-0.6419050714462794</v>
       </c>
       <c r="E12">
-        <v>0.5005091280636749</v>
+        <v>0.5001658603016788</v>
       </c>
       <c r="F12">
-        <v>-0.008052059512352119</v>
+        <v>-0.008067828662506035</v>
       </c>
       <c r="G12">
-        <v>-0.0227820249102666</v>
+        <v>-0.02238758401360713</v>
       </c>
       <c r="H12">
-        <v>-0.0152451768754947</v>
+        <v>-0.01582893728646723</v>
       </c>
       <c r="I12">
-        <v>-0.05901432777508939</v>
+        <v>-0.05947647458249555</v>
       </c>
       <c r="J12">
-        <v>-0.0771430551717586</v>
+        <v>-0.0770701215885336</v>
       </c>
       <c r="K12">
-        <v>-0.04346009274361728</v>
+        <v>-0.0433508136572115</v>
       </c>
     </row>
   </sheetData>
